--- a/output/altas_cli_mes_1.xlsx
+++ b/output/altas_cli_mes_1.xlsx
@@ -540,7 +540,7 @@
         <v>24</v>
       </c>
       <c r="Q2">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -646,7 +646,7 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
